--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -451,31 +451,31 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41560.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>4.45</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>3.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>5.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>24.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>4.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>3.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>4.79</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41560.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.15</v>
+        <v>0.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.34</v>
+        <v>1.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.41</v>
+        <v>1.34</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.13</v>
+        <v>0.61</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.23</v>
+        <v>2.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.93</v>
+        <v>0.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.96</v>
+        <v>0.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.09</v>
+        <v>0.61</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.5</v>
+        <v>0.85</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>85.41</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>17.22</v>
+        <v>1.72</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.62</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>11.19</v>
+        <v>1.12</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.63</v>
+        <v>0.46</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.4</v>
+        <v>0.54</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.81</v>
+        <v>0.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>24.93</v>
+        <v>2.49</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41560.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.9</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.16</v>
+        <v>2.12</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.4</v>
+        <v>1.74</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.79</v>
+        <v>0.78</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.58</v>
+        <v>0.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>8.91</v>
+        <v>0.89</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.49</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>10.89</v>
+        <v>1.09</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA4" s="4" t="n">
         <v>0.63</v>
       </c>
-      <c r="T4" s="4" t="n">
-        <v>110.55</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>7.15</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.31</v>
-      </c>
       <c r="AB4" s="4" t="n">
-        <v>5.74</v>
+        <v>0.57</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>27.12</v>
+        <v>2.71</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.92</v>
+        <v>0.39</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41560.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.15</v>
+        <v>3.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.63</v>
+        <v>3.06</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.65</v>
+        <v>5.07</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.71</v>
+        <v>1.37</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>197.54</v>
+        <v>19.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.59</v>
+        <v>3.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.19</v>
+        <v>2.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.98</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.7</v>
+        <v>2.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.84</v>
+        <v>4.58</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41560.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.62</v>
+        <v>0.26</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>8.16</v>
+        <v>0.82</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.03</v>
+        <v>0.3</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4.65</v>
+        <v>0.47</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>3.35</v>
+        <v>0.34</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.98</v>
+        <v>0.1</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.7</v>
+        <v>0.27</v>
       </c>
       <c r="R6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W6" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="S6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>38.52</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>5.77</v>
-      </c>
       <c r="X6" s="4" t="n">
-        <v>3.06</v>
+        <v>0.31</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>7.75</v>
+        <v>0.77</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>3.47</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41560.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.79</v>
+        <v>0.28</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>10.64</v>
+        <v>1.06</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.48</v>
+        <v>0.25</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.99</v>
+        <v>0.2</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X7" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>2.2</v>
-      </c>
       <c r="Y7" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>4.7</v>
+        <v>0.47</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.78</v>
+        <v>0.18</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>1.94</v>
+        <v>0.19</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.51</v>
+        <v>0.25</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41560.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Q8" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>25.28</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>6.14</v>
-      </c>
       <c r="R8" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>102.51</v>
+        <v>10.25</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.66</v>
+        <v>0.67</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.39</v>
+        <v>1.34</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>12.33</v>
+        <v>1.23</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.89</v>
+        <v>0.59</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.72</v>
+        <v>0.37</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41560.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>11.91</v>
+        <v>1.19</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>25.81</v>
+        <v>2.58</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>21.26</v>
+        <v>2.13</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>35.16</v>
+        <v>3.52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>14.43</v>
+        <v>1.44</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>7.87</v>
+        <v>0.79</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>134.58</v>
+        <v>13.46</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>26.05</v>
+        <v>2.6</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>6.75</v>
+        <v>0.67</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>10.91</v>
+        <v>1.09</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>31.88</v>
+        <v>3.19</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41560.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>12.97</v>
+        <v>1.3</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>9.6</v>
+        <v>0.96</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>28.12</v>
+        <v>2.81</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>23.18</v>
+        <v>2.32</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>39.45</v>
+        <v>3.94</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>15.71</v>
+        <v>1.57</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>11.33</v>
+        <v>1.13</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>10.15</v>
+        <v>1.02</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>147.18</v>
+        <v>14.72</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>28.39</v>
+        <v>2.84</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>19.13</v>
+        <v>1.91</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>35.81</v>
+        <v>3.58</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>5.28</v>
+        <v>0.53</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,20 +462,20 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41560.34027777778</v>
+        <v>44809.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.11</v>
+        <v>1.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>0.76</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.45</v>
+        <v>2.46</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.66</v>
+        <v>1.81</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.86</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.42</v>
+        <v>2.54</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.56</v>
+        <v>1.4</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.66</v>
+        <v>0.78</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>0.97</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>1.06</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.27</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.65</v>
+        <v>0.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.32</v>
+        <v>1.22</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>0.82</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.27</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.44</v>
+        <v>12.99</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.6</v>
+        <v>2.49</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>0.83</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.04</v>
+        <v>1.57</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.69</v>
+        <v>1.41</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.74</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>0.79</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>1.03</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>0.27</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.79</v>
+        <v>2.28</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.84</v>
+        <v>0.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41560.34722222222</v>
+        <v>44809.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.17</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="P3" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AF3" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>2.49</v>
-      </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41560.35416666666</v>
+        <v>44809.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.99</v>
+        <v>1.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.7</v>
+        <v>1.05</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.12</v>
+        <v>3.13</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.74</v>
+        <v>2.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.01</v>
+        <v>3.93</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.86</v>
+        <v>1.25</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.34</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.13</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.09</v>
+        <v>1.59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.05</v>
+        <v>16.43</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.16</v>
+        <v>3.14</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.71</v>
+        <v>1.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.43</v>
+        <v>2.08</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.77</v>
+        <v>1.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.63</v>
+        <v>0.92</v>
       </c>
       <c r="AB4" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>0.39</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>0.89</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41560.36111111111</v>
+        <v>44809.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.72</v>
+        <v>2.34</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>1.26</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.92</v>
-      </c>
       <c r="K5" s="4" t="n">
-        <v>1.37</v>
+        <v>1.87</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.57</v>
+        <v>2.19</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.58</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.84</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.91</v>
+        <v>2.62</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>19.75</v>
+        <v>27.31</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.76</v>
+        <v>5.15</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.24</v>
+        <v>1.7</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.47</v>
+        <v>3.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>1.33</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.58</v>
+        <v>6.36</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.55</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41560.36805555555</v>
+        <v>44809.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.38</v>
+        <v>15.27</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.26</v>
+        <v>11.39</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.82</v>
+        <v>33.43</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.67</v>
+        <v>27.13</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.3</v>
+        <v>11.98</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.73</v>
+        <v>49.31</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.47</v>
+        <v>18.62</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.2</v>
+        <v>8.24</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.29</v>
+        <v>12.11</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.34</v>
+        <v>13.41</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.34</v>
+        <v>14.29</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.1</v>
+        <v>3.78</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.3</v>
+        <v>12.03</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.43</v>
+        <v>17.1</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.27</v>
+        <v>10.21</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.63</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>3.85</v>
+        <v>175.81</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.87</v>
+        <v>33.71</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.28</v>
+        <v>11.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.58</v>
+        <v>22.59</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.31</v>
+        <v>11.83</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.78</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.77</v>
+        <v>23.68</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.25</v>
+        <v>9.81</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.23</v>
+        <v>8.73</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.27</v>
+        <v>10.25</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.35</v>
+        <v>14.1</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.61</v>
+        <v>44.92</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.15</v>
+        <v>6.21</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41560.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41560.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41560.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>13.46</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41560.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41560.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>34.61</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>28.55</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>48.27</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>182.66</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>11.52</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>23.52</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>23.47</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>43.79</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>14.4</v>
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -451,27 +451,27 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44809.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.46</v>
+        <v>24.62</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.07</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.59</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.54</v>
+        <v>25.44</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.23</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.25</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.42</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>12.99</v>
+        <v>129.95</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.57</v>
+        <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.89</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.88</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.31</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.69</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.28</v>
+        <v>22.83</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44809.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.73</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.1</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.78</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.36</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44809.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.26</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.13</v>
+        <v>31.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.06</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.93</v>
+        <v>39.35</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.25</v>
+        <v>12.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.43</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.43</v>
+        <v>164.32</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.14</v>
+        <v>31.37</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.97</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.98</v>
+        <v>19.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.97</v>
+        <v>9.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.51</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44809.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.34</v>
+        <v>23.42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.12</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.17</v>
+        <v>41.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.99</v>
+        <v>69.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.87</v>
+        <v>18.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.05</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.19</v>
+        <v>21.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.84</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.62</v>
+        <v>26.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>27.31</v>
+        <v>273.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.15</v>
+        <v>51.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.7</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.46</v>
+        <v>34.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.45</v>
+        <v>34.52</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.16</v>
+        <v>21.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.36</v>
+        <v>63.63</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.26</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44809.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>11.26</v>
+        <v>11.256</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>7.64</v>
+        <v>7.644</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.43</v>
+        <v>3.425</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>24.62</v>
+        <v>24.615</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>18.07</v>
+        <v>18.068</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>8.59</v>
+        <v>8.586</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>25.44</v>
+        <v>25.443</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.42</v>
+        <v>5.416</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.79</v>
+        <v>7.792</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.715</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>10.59</v>
+        <v>10.589</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.7</v>
+        <v>2.697</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>12.23</v>
+        <v>12.231</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>8.25</v>
+        <v>8.247999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>2.68</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.42</v>
+        <v>1.423</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>129.95</v>
+        <v>129.948</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>24.89</v>
+        <v>24.892</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>15.72</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.193</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.063</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.89</v>
+        <v>6.887</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.88</v>
+        <v>7.883</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>10.31</v>
+        <v>10.309</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.69</v>
+        <v>2.695</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>22.83</v>
+        <v>22.828</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>10.41</v>
+        <v>10.412</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44809.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.73</v>
+        <v>1.727</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.985</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.268</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.1</v>
+        <v>4.097</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.17</v>
+        <v>2.167</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.234</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.541</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.599</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.9</v>
+        <v>1.901</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.355</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.985</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.225</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.543</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>15.66</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.59</v>
+        <v>4.587</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.64</v>
+        <v>2.638</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.242</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.83</v>
+        <v>4.828</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.36</v>
+        <v>1.357</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.52</v>
+        <v>1.521</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.681</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.4</v>
+        <v>9.397</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.521</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44809.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>14.26</v>
+        <v>14.263</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.54</v>
+        <v>10.541</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.23</v>
+        <v>1.232</v>
       </c>
       <c r="E4" s="4" t="n">
         <v>31.32</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>25.06</v>
+        <v>25.062</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.14</v>
+        <v>11.145</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>39.35</v>
+        <v>39.349</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.59</v>
+        <v>7.588</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.101</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.55</v>
+        <v>12.549</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>13.43</v>
+        <v>13.435</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.497</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>15.89</v>
+        <v>15.887</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.73</v>
+        <v>9.727</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.926</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="T4" s="4" t="n">
         <v>164.32</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>31.37</v>
+        <v>31.373</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.83</v>
+        <v>20.834</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.97</v>
+        <v>10.967</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.807</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.76</v>
+        <v>19.762</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>8.26</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.68</v>
+        <v>9.683</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.189</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>35.51</v>
+        <v>35.512</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.75</v>
+        <v>5.746</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.02</v>
+        <v>13.015</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>21.26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44809.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,8 +469,8 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,103 +967,207 @@
         <v>44809.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.42</v>
+        <v>23.418</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>17.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.332</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.19</v>
+        <v>51.193</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.69</v>
+        <v>41.694</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.37</v>
+        <v>18.374</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.94</v>
+        <v>69.938</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.5</v>
+        <v>28.505</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.64</v>
+        <v>12.642</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.66</v>
+        <v>18.661</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.53</v>
+        <v>20.532</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>21.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.81</v>
+        <v>5.814</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.42</v>
+        <v>18.422</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.2</v>
+        <v>26.197</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.56</v>
+        <v>15.558</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.805</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.09</v>
+        <v>273.092</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.49</v>
+        <v>51.494</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17</v>
+        <v>17.004</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.58</v>
+        <v>34.579</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.14</v>
+        <v>18.144</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.67</v>
+        <v>2.666</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.52</v>
+        <v>34.521</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.32</v>
+        <v>13.325</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.66</v>
+        <v>15.655</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.58</v>
+        <v>21.584</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.63</v>
+        <v>63.628</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.26</v>
+        <v>21.259</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44809.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>33.43</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>27.13</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>49.31</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>13.41</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>175.81</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>33.71</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>22.59</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>23.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>44.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.21</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>13.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_128.xlsx
+++ b/DATA_goal/Junction_Flooding_128.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -469,8 +469,8 @@
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,207 +967,103 @@
         <v>44809.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.418</v>
+        <v>23.42</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>17.48</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.332</v>
+        <v>1.33</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>51.193</v>
+        <v>51.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>41.694</v>
+        <v>41.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.374</v>
+        <v>18.37</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.938</v>
+        <v>69.94</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.505</v>
+        <v>28.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.642</v>
+        <v>12.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>18.661</v>
+        <v>18.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.532</v>
+        <v>20.53</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>21.85</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.814</v>
+        <v>5.81</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.422</v>
+        <v>18.42</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.197</v>
+        <v>26.2</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.558</v>
+        <v>15.56</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>273.092</v>
+        <v>273.09</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>51.494</v>
+        <v>51.49</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.004</v>
+        <v>17</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>34.579</v>
+        <v>34.58</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.144</v>
+        <v>18.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.666</v>
+        <v>2.67</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.521</v>
+        <v>34.52</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>15.02</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.325</v>
+        <v>13.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.655</v>
+        <v>15.66</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.584</v>
+        <v>21.58</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.53</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.628</v>
+        <v>63.63</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>9.550000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.259</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44809.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>33.43</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>27.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.98</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>49.31</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>13.41</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>175.81</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>33.71</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>22.59</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>23.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>44.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>13.88</v>
+        <v>21.26</v>
       </c>
     </row>
   </sheetData>
